--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Mst1-Mst1r.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Mst1-Mst1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Mst1</t>
   </si>
   <si>
     <t>Mst1r</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.331101330646174</v>
+        <v>0.3622946666666667</v>
       </c>
       <c r="H2">
-        <v>0.331101330646174</v>
+        <v>1.086884</v>
       </c>
       <c r="I2">
-        <v>0.1305794778595408</v>
+        <v>0.1180795371744169</v>
       </c>
       <c r="J2">
-        <v>0.1305794778595408</v>
+        <v>0.1180795371744169</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.05466401608282</v>
+        <v>1.060984333333334</v>
       </c>
       <c r="N2">
-        <v>1.05466401608282</v>
+        <v>3.182953</v>
       </c>
       <c r="O2">
-        <v>0.7852140350322149</v>
+        <v>0.4815240590097311</v>
       </c>
       <c r="P2">
-        <v>0.7852140350322149</v>
+        <v>0.4815240590097311</v>
       </c>
       <c r="Q2">
-        <v>0.3492006591096595</v>
+        <v>0.3843889653835556</v>
       </c>
       <c r="R2">
-        <v>0.3492006591096595</v>
+        <v>3.459500688452</v>
       </c>
       <c r="S2">
-        <v>0.1025328387024898</v>
+        <v>0.05685813802621565</v>
       </c>
       <c r="T2">
-        <v>0.1025328387024898</v>
+        <v>0.05685813802621566</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,557 +590,1425 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.331101330646174</v>
+        <v>0.3622946666666667</v>
       </c>
       <c r="H3">
-        <v>0.331101330646174</v>
+        <v>1.086884</v>
       </c>
       <c r="I3">
-        <v>0.1305794778595408</v>
+        <v>0.1180795371744169</v>
       </c>
       <c r="J3">
-        <v>0.1305794778595408</v>
+        <v>0.1180795371744169</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.288490804168897</v>
+        <v>0.7402906666666667</v>
       </c>
       <c r="N3">
-        <v>0.288490804168897</v>
+        <v>2.220872</v>
       </c>
       <c r="O3">
-        <v>0.2147859649677851</v>
+        <v>0.3359783509153479</v>
       </c>
       <c r="P3">
-        <v>0.2147859649677851</v>
+        <v>0.3359783509153479</v>
       </c>
       <c r="Q3">
-        <v>0.09551968913950659</v>
+        <v>0.2682033603164444</v>
       </c>
       <c r="R3">
-        <v>0.09551968913950659</v>
+        <v>2.413830242848</v>
       </c>
       <c r="S3">
-        <v>0.028046639157051</v>
+        <v>0.0396721681767081</v>
       </c>
       <c r="T3">
-        <v>0.028046639157051</v>
+        <v>0.03967216817670811</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.621819302129096</v>
+        <v>0.3622946666666667</v>
       </c>
       <c r="H4">
-        <v>0.621819302129096</v>
+        <v>1.086884</v>
       </c>
       <c r="I4">
-        <v>0.2452325988437994</v>
+        <v>0.1180795371744169</v>
       </c>
       <c r="J4">
-        <v>0.2452325988437994</v>
+        <v>0.1180795371744169</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.05466401608282</v>
+        <v>0.1116543333333333</v>
       </c>
       <c r="N4">
-        <v>1.05466401608282</v>
+        <v>0.334963</v>
       </c>
       <c r="O4">
-        <v>0.7852140350322149</v>
+        <v>0.05067393184193312</v>
       </c>
       <c r="P4">
-        <v>0.7852140350322149</v>
+        <v>0.05067393184193312</v>
       </c>
       <c r="Q4">
-        <v>0.6558104424612888</v>
+        <v>0.04045176947688889</v>
       </c>
       <c r="R4">
-        <v>0.6558104424612888</v>
+        <v>0.364065925292</v>
       </c>
       <c r="S4">
-        <v>0.1925600784595762</v>
+        <v>0.005983554418703409</v>
       </c>
       <c r="T4">
-        <v>0.1925600784595762</v>
+        <v>0.00598355441870341</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.621819302129096</v>
+        <v>0.3622946666666667</v>
       </c>
       <c r="H5">
-        <v>0.621819302129096</v>
+        <v>1.086884</v>
       </c>
       <c r="I5">
-        <v>0.2452325988437994</v>
+        <v>0.1180795371744169</v>
       </c>
       <c r="J5">
-        <v>0.2452325988437994</v>
+        <v>0.1180795371744169</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.288490804168897</v>
+        <v>0.2904586666666666</v>
       </c>
       <c r="N5">
-        <v>0.288490804168897</v>
+        <v>0.8713759999999999</v>
       </c>
       <c r="O5">
-        <v>0.2147859649677851</v>
+        <v>0.1318236582329878</v>
       </c>
       <c r="P5">
-        <v>0.2147859649677851</v>
+        <v>0.1318236582329879</v>
       </c>
       <c r="Q5">
-        <v>0.1793891505189652</v>
+        <v>0.1052316258204444</v>
       </c>
       <c r="R5">
-        <v>0.1793891505189652</v>
+        <v>0.9470846323839999</v>
       </c>
       <c r="S5">
-        <v>0.05267252038422321</v>
+        <v>0.01556567655278971</v>
       </c>
       <c r="T5">
-        <v>0.05267252038422321</v>
+        <v>0.01556567655278972</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.496646015983995</v>
+        <v>0.6495293333333333</v>
       </c>
       <c r="H6">
-        <v>0.496646015983995</v>
+        <v>1.948588</v>
       </c>
       <c r="I6">
-        <v>0.1958668584075067</v>
+        <v>0.21169542396762</v>
       </c>
       <c r="J6">
-        <v>0.1958668584075067</v>
+        <v>0.21169542396762</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.05466401608282</v>
+        <v>1.060984333333334</v>
       </c>
       <c r="N6">
-        <v>1.05466401608282</v>
+        <v>3.182953</v>
       </c>
       <c r="O6">
-        <v>0.7852140350322149</v>
+        <v>0.4815240590097311</v>
       </c>
       <c r="P6">
-        <v>0.7852140350322149</v>
+        <v>0.4815240590097311</v>
       </c>
       <c r="Q6">
-        <v>0.5237946817892126</v>
+        <v>0.6891404467071112</v>
       </c>
       <c r="R6">
-        <v>0.5237946817892126</v>
+        <v>6.202264020364001</v>
       </c>
       <c r="S6">
-        <v>0.1537974062192418</v>
+        <v>0.1019364398226743</v>
       </c>
       <c r="T6">
-        <v>0.1537974062192418</v>
+        <v>0.1019364398226743</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.496646015983995</v>
+        <v>0.6495293333333333</v>
       </c>
       <c r="H7">
-        <v>0.496646015983995</v>
+        <v>1.948588</v>
       </c>
       <c r="I7">
-        <v>0.1958668584075067</v>
+        <v>0.21169542396762</v>
       </c>
       <c r="J7">
-        <v>0.1958668584075067</v>
+        <v>0.21169542396762</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.288490804168897</v>
+        <v>0.7402906666666667</v>
       </c>
       <c r="N7">
-        <v>0.288490804168897</v>
+        <v>2.220872</v>
       </c>
       <c r="O7">
-        <v>0.2147859649677851</v>
+        <v>0.3359783509153479</v>
       </c>
       <c r="P7">
-        <v>0.2147859649677851</v>
+        <v>0.3359783509153479</v>
       </c>
       <c r="Q7">
-        <v>0.1432778085385016</v>
+        <v>0.4808405031928888</v>
       </c>
       <c r="R7">
-        <v>0.1432778085385016</v>
+        <v>4.327564528736</v>
       </c>
       <c r="S7">
-        <v>0.04206945218826486</v>
+        <v>0.07112507944096637</v>
       </c>
       <c r="T7">
-        <v>0.04206945218826486</v>
+        <v>0.07112507944096638</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.331315210484324</v>
+        <v>0.6495293333333333</v>
       </c>
       <c r="H8">
-        <v>0.331315210484324</v>
+        <v>1.948588</v>
       </c>
       <c r="I8">
-        <v>0.1306638276189809</v>
+        <v>0.21169542396762</v>
       </c>
       <c r="J8">
-        <v>0.1306638276189809</v>
+        <v>0.21169542396762</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.05466401608282</v>
+        <v>0.1116543333333333</v>
       </c>
       <c r="N8">
-        <v>1.05466401608282</v>
+        <v>0.334963</v>
       </c>
       <c r="O8">
-        <v>0.7852140350322149</v>
+        <v>0.05067393184193312</v>
       </c>
       <c r="P8">
-        <v>0.7852140350322149</v>
+        <v>0.05067393184193312</v>
       </c>
       <c r="Q8">
-        <v>0.349426230478722</v>
+        <v>0.07252276469377777</v>
       </c>
       <c r="R8">
-        <v>0.349426230478722</v>
+        <v>0.652704882244</v>
       </c>
       <c r="S8">
-        <v>0.1025990713174538</v>
+        <v>0.01072743948538431</v>
       </c>
       <c r="T8">
-        <v>0.1025990713174538</v>
+        <v>0.01072743948538431</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.331315210484324</v>
+        <v>0.6495293333333333</v>
       </c>
       <c r="H9">
-        <v>0.331315210484324</v>
+        <v>1.948588</v>
       </c>
       <c r="I9">
-        <v>0.1306638276189809</v>
+        <v>0.21169542396762</v>
       </c>
       <c r="J9">
-        <v>0.1306638276189809</v>
+        <v>0.21169542396762</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.288490804168897</v>
+        <v>0.2904586666666666</v>
       </c>
       <c r="N9">
-        <v>0.288490804168897</v>
+        <v>0.8713759999999999</v>
       </c>
       <c r="O9">
-        <v>0.2147859649677851</v>
+        <v>0.1318236582329878</v>
       </c>
       <c r="P9">
-        <v>0.2147859649677851</v>
+        <v>0.1318236582329879</v>
       </c>
       <c r="Q9">
-        <v>0.09558139150601</v>
+        <v>0.1886614241208888</v>
       </c>
       <c r="R9">
-        <v>0.09558139150601</v>
+        <v>1.697952817088</v>
       </c>
       <c r="S9">
-        <v>0.02806475630152715</v>
+        <v>0.02790646521859499</v>
       </c>
       <c r="T9">
-        <v>0.02806475630152715</v>
+        <v>0.027906465218595</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.754748823874372</v>
+        <v>0.5152666666666667</v>
       </c>
       <c r="H10">
-        <v>0.754748823874372</v>
+        <v>1.5458</v>
       </c>
       <c r="I10">
-        <v>0.2976572372701723</v>
+        <v>0.1679363653933756</v>
       </c>
       <c r="J10">
-        <v>0.2976572372701723</v>
+        <v>0.1679363653933756</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.05466401608282</v>
+        <v>1.060984333333334</v>
       </c>
       <c r="N10">
-        <v>1.05466401608282</v>
+        <v>3.182953</v>
       </c>
       <c r="O10">
-        <v>0.7852140350322149</v>
+        <v>0.4815240590097311</v>
       </c>
       <c r="P10">
-        <v>0.7852140350322149</v>
+        <v>0.4815240590097311</v>
       </c>
       <c r="Q10">
-        <v>0.7960064257211302</v>
+        <v>0.5466898608222223</v>
       </c>
       <c r="R10">
-        <v>0.7960064257211302</v>
+        <v>4.9202087474</v>
       </c>
       <c r="S10">
-        <v>0.2337246403334534</v>
+        <v>0.08086540031955955</v>
       </c>
       <c r="T10">
-        <v>0.2337246403334534</v>
+        <v>0.08086540031955955</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5152666666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.5458</v>
+      </c>
+      <c r="I11">
+        <v>0.1679363653933756</v>
+      </c>
+      <c r="J11">
+        <v>0.1679363653933756</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.7402906666666667</v>
+      </c>
+      <c r="N11">
+        <v>2.220872</v>
+      </c>
+      <c r="O11">
+        <v>0.3359783509153479</v>
+      </c>
+      <c r="P11">
+        <v>0.3359783509153479</v>
+      </c>
+      <c r="Q11">
+        <v>0.3814471041777778</v>
+      </c>
+      <c r="R11">
+        <v>3.4330239376</v>
+      </c>
+      <c r="S11">
+        <v>0.05642298310358363</v>
+      </c>
+      <c r="T11">
+        <v>0.05642298310358364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5152666666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.5458</v>
+      </c>
+      <c r="I12">
+        <v>0.1679363653933756</v>
+      </c>
+      <c r="J12">
+        <v>0.1679363653933756</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1116543333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.334963</v>
+      </c>
+      <c r="O12">
+        <v>0.05067393184193312</v>
+      </c>
+      <c r="P12">
+        <v>0.05067393184193312</v>
+      </c>
+      <c r="Q12">
+        <v>0.05753175615555556</v>
+      </c>
+      <c r="R12">
+        <v>0.5177858054</v>
+      </c>
+      <c r="S12">
+        <v>0.008509995933725889</v>
+      </c>
+      <c r="T12">
+        <v>0.008509995933725889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5152666666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.5458</v>
+      </c>
+      <c r="I13">
+        <v>0.1679363653933756</v>
+      </c>
+      <c r="J13">
+        <v>0.1679363653933756</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.2904586666666666</v>
+      </c>
+      <c r="N13">
+        <v>0.8713759999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.1318236582329878</v>
+      </c>
+      <c r="P13">
+        <v>0.1318236582329879</v>
+      </c>
+      <c r="Q13">
+        <v>0.1496636689777777</v>
+      </c>
+      <c r="R13">
+        <v>1.3469730208</v>
+      </c>
+      <c r="S13">
+        <v>0.02213798603650651</v>
+      </c>
+      <c r="T13">
+        <v>0.02213798603650651</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4388336666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.316501</v>
+      </c>
+      <c r="I14">
+        <v>0.1430252251111039</v>
+      </c>
+      <c r="J14">
+        <v>0.1430252251111039</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.060984333333334</v>
+      </c>
+      <c r="N14">
+        <v>3.182953</v>
+      </c>
+      <c r="O14">
+        <v>0.4815240590097311</v>
+      </c>
+      <c r="P14">
+        <v>0.4815240590097311</v>
+      </c>
+      <c r="Q14">
+        <v>0.4655956452725556</v>
+      </c>
+      <c r="R14">
+        <v>4.190360807453001</v>
+      </c>
+      <c r="S14">
+        <v>0.06887008693627925</v>
+      </c>
+      <c r="T14">
+        <v>0.06887008693627925</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4388336666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.316501</v>
+      </c>
+      <c r="I15">
+        <v>0.1430252251111039</v>
+      </c>
+      <c r="J15">
+        <v>0.1430252251111039</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.7402906666666667</v>
+      </c>
+      <c r="N15">
+        <v>2.220872</v>
+      </c>
+      <c r="O15">
+        <v>0.3359783509153479</v>
+      </c>
+      <c r="P15">
+        <v>0.3359783509153479</v>
+      </c>
+      <c r="Q15">
+        <v>0.3248644676524444</v>
+      </c>
+      <c r="R15">
+        <v>2.923780208872</v>
+      </c>
+      <c r="S15">
+        <v>0.04805337927212508</v>
+      </c>
+      <c r="T15">
+        <v>0.04805337927212509</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4388336666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.316501</v>
+      </c>
+      <c r="I16">
+        <v>0.1430252251111039</v>
+      </c>
+      <c r="J16">
+        <v>0.1430252251111039</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1116543333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.334963</v>
+      </c>
+      <c r="O16">
+        <v>0.05067393184193312</v>
+      </c>
+      <c r="P16">
+        <v>0.05067393184193312</v>
+      </c>
+      <c r="Q16">
+        <v>0.04899768049588889</v>
+      </c>
+      <c r="R16">
+        <v>0.440979124463</v>
+      </c>
+      <c r="S16">
+        <v>0.007247650508957218</v>
+      </c>
+      <c r="T16">
+        <v>0.007247650508957218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4388336666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.316501</v>
+      </c>
+      <c r="I17">
+        <v>0.1430252251111039</v>
+      </c>
+      <c r="J17">
+        <v>0.1430252251111039</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.2904586666666666</v>
+      </c>
+      <c r="N17">
+        <v>0.8713759999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.1318236582329878</v>
+      </c>
+      <c r="P17">
+        <v>0.1318236582329879</v>
+      </c>
+      <c r="Q17">
+        <v>0.1274630417084444</v>
+      </c>
+      <c r="R17">
+        <v>1.147167375376</v>
+      </c>
+      <c r="S17">
+        <v>0.0188541083937423</v>
+      </c>
+      <c r="T17">
+        <v>0.01885410839374231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.8212836666666666</v>
+      </c>
+      <c r="H18">
+        <v>2.463851</v>
+      </c>
+      <c r="I18">
+        <v>0.2676738140838619</v>
+      </c>
+      <c r="J18">
+        <v>0.267673814083862</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.060984333333334</v>
+      </c>
+      <c r="N18">
+        <v>3.182953</v>
+      </c>
+      <c r="O18">
+        <v>0.4815240590097311</v>
+      </c>
+      <c r="P18">
+        <v>0.4815240590097311</v>
+      </c>
+      <c r="Q18">
+        <v>0.871369103555889</v>
+      </c>
+      <c r="R18">
+        <v>7.842321932003001</v>
+      </c>
+      <c r="S18">
+        <v>0.1288913814482773</v>
+      </c>
+      <c r="T18">
+        <v>0.1288913814482774</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.8212836666666666</v>
+      </c>
+      <c r="H19">
+        <v>2.463851</v>
+      </c>
+      <c r="I19">
+        <v>0.2676738140838619</v>
+      </c>
+      <c r="J19">
+        <v>0.267673814083862</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.7402906666666667</v>
+      </c>
+      <c r="N19">
+        <v>2.220872</v>
+      </c>
+      <c r="O19">
+        <v>0.3359783509153479</v>
+      </c>
+      <c r="P19">
+        <v>0.3359783509153479</v>
+      </c>
+      <c r="Q19">
+        <v>0.6079886331191111</v>
+      </c>
+      <c r="R19">
+        <v>5.471897698072</v>
+      </c>
+      <c r="S19">
+        <v>0.08993260663911735</v>
+      </c>
+      <c r="T19">
+        <v>0.08993260663911738</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.8212836666666666</v>
+      </c>
+      <c r="H20">
+        <v>2.463851</v>
+      </c>
+      <c r="I20">
+        <v>0.2676738140838619</v>
+      </c>
+      <c r="J20">
+        <v>0.267673814083862</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1116543333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.334963</v>
+      </c>
+      <c r="O20">
+        <v>0.05067393184193312</v>
+      </c>
+      <c r="P20">
+        <v>0.05067393184193312</v>
+      </c>
+      <c r="Q20">
+        <v>0.09169988027922223</v>
+      </c>
+      <c r="R20">
+        <v>0.8252989225130001</v>
+      </c>
+      <c r="S20">
+        <v>0.0135640846107559</v>
+      </c>
+      <c r="T20">
+        <v>0.0135640846107559</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.754748823874372</v>
-      </c>
-      <c r="H11">
-        <v>0.754748823874372</v>
-      </c>
-      <c r="I11">
-        <v>0.2976572372701723</v>
-      </c>
-      <c r="J11">
-        <v>0.2976572372701723</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.288490804168897</v>
-      </c>
-      <c r="N11">
-        <v>0.288490804168897</v>
-      </c>
-      <c r="O11">
-        <v>0.2147859649677851</v>
-      </c>
-      <c r="P11">
-        <v>0.2147859649677851</v>
-      </c>
-      <c r="Q11">
-        <v>0.2177380951450468</v>
-      </c>
-      <c r="R11">
-        <v>0.2177380951450468</v>
-      </c>
-      <c r="S11">
-        <v>0.06393259693671895</v>
-      </c>
-      <c r="T11">
-        <v>0.06393259693671895</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.8212836666666666</v>
+      </c>
+      <c r="H21">
+        <v>2.463851</v>
+      </c>
+      <c r="I21">
+        <v>0.2676738140838619</v>
+      </c>
+      <c r="J21">
+        <v>0.267673814083862</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.2904586666666666</v>
+      </c>
+      <c r="N21">
+        <v>0.8713759999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.1318236582329878</v>
+      </c>
+      <c r="P21">
+        <v>0.1318236582329879</v>
+      </c>
+      <c r="Q21">
+        <v>0.2385489587751111</v>
+      </c>
+      <c r="R21">
+        <v>2.146940628976</v>
+      </c>
+      <c r="S21">
+        <v>0.03528574138571134</v>
+      </c>
+      <c r="T21">
+        <v>0.03528574138571135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.2810176666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.8430530000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.09158963426962186</v>
+      </c>
+      <c r="J22">
+        <v>0.09158963426962187</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.060984333333334</v>
+      </c>
+      <c r="N22">
+        <v>3.182953</v>
+      </c>
+      <c r="O22">
+        <v>0.4815240590097311</v>
+      </c>
+      <c r="P22">
+        <v>0.4815240590097311</v>
+      </c>
+      <c r="Q22">
+        <v>0.2981553417232223</v>
+      </c>
+      <c r="R22">
+        <v>2.683398075509</v>
+      </c>
+      <c r="S22">
+        <v>0.04410261245672509</v>
+      </c>
+      <c r="T22">
+        <v>0.04410261245672509</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.2810176666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.8430530000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.09158963426962186</v>
+      </c>
+      <c r="J23">
+        <v>0.09158963426962187</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.7402906666666667</v>
+      </c>
+      <c r="N23">
+        <v>2.220872</v>
+      </c>
+      <c r="O23">
+        <v>0.3359783509153479</v>
+      </c>
+      <c r="P23">
+        <v>0.3359783509153479</v>
+      </c>
+      <c r="Q23">
+        <v>0.2080347558017778</v>
+      </c>
+      <c r="R23">
+        <v>1.872312802216</v>
+      </c>
+      <c r="S23">
+        <v>0.03077213428284738</v>
+      </c>
+      <c r="T23">
+        <v>0.03077213428284739</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.2810176666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.8430530000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.09158963426962186</v>
+      </c>
+      <c r="J24">
+        <v>0.09158963426962187</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.1116543333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.334963</v>
+      </c>
+      <c r="O24">
+        <v>0.05067393184193312</v>
+      </c>
+      <c r="P24">
+        <v>0.05067393184193312</v>
+      </c>
+      <c r="Q24">
+        <v>0.03137684022655556</v>
+      </c>
+      <c r="R24">
+        <v>0.282391562039</v>
+      </c>
+      <c r="S24">
+        <v>0.0046412068844064</v>
+      </c>
+      <c r="T24">
+        <v>0.004641206884406401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.2810176666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.8430530000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.09158963426962186</v>
+      </c>
+      <c r="J25">
+        <v>0.09158963426962187</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.2904586666666666</v>
+      </c>
+      <c r="N25">
+        <v>0.8713759999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.1318236582329878</v>
+      </c>
+      <c r="P25">
+        <v>0.1318236582329879</v>
+      </c>
+      <c r="Q25">
+        <v>0.08162401676977778</v>
+      </c>
+      <c r="R25">
+        <v>0.734616150928</v>
+      </c>
+      <c r="S25">
+        <v>0.01207368064564298</v>
+      </c>
+      <c r="T25">
+        <v>0.01207368064564299</v>
       </c>
     </row>
   </sheetData>
